--- a/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.02.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.02.xlsx
@@ -891,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1087,7 +1087,7 @@
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -1115,7 +1115,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1213,7 +1213,7 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -1395,7 +1395,7 @@
         <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1409,7 +1409,7 @@
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1423,7 +1423,7 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1493,7 +1493,7 @@
         <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -1577,7 +1577,7 @@
         <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1703,7 +1703,7 @@
         <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -1885,7 +1885,7 @@
         <v>98</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -1899,7 +1899,7 @@
         <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -2165,7 +2165,7 @@
         <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -2193,7 +2193,7 @@
         <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -2361,7 +2361,7 @@
         <v>25</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -2627,7 +2627,7 @@
         <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D127" t="s">
         <v>7</v>
@@ -2669,7 +2669,7 @@
         <v>21</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D130" t="s">
         <v>9</v>
